--- a/cities.xlsx
+++ b/cities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\szem_8\TDK-kincs\airbnb-research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\szem_8\TDK-airbnb\airbnb-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B214AA2F-4700-4399-8233-B28DCE13CDEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A1C996-F4B0-4EAB-B237-EBED5565A343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{92ACD1CA-2FB8-4D2F-A4B1-BF9E769471C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>Budapest</t>
   </si>
@@ -520,6 +520,216 @@
   </si>
   <si>
     <t>https://www.airbnb.hu/s/b%C3%A9lap%C3%A1tfalva/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=search_blocks_selector_p1_flow&amp;search_type=search_query&amp;place_id=ChIJm9k_CQ-HakcRUB0eDCnEAAQ&amp;map_toggle=false</t>
+  </si>
+  <si>
+    <t>Mátészalka</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/M%C3%A1t%C3%A9szalka--Hungary/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;query=M%C3%A1t%C3%A9szalka%2C%20Hungary&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;place_id=ChIJp3cgSkN7OEcRoxZFeq_hSpo</t>
+  </si>
+  <si>
+    <t>Hatvan</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/hatvan/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Tamási</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Tam%C3%A1si--Hungary/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=Tam%C3%A1si%2C%20Hungary&amp;place_id=ChIJs2y_GRLVaUcR3ih8SVubOTM</t>
+  </si>
+  <si>
+    <t>Kapuvár</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/kapuv%C3%A1r/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Szentgotth%C3%A1rd/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=Szentgotth%C3%A1rd&amp;place_id=ChIJnfJqsCTebkcRXRT0V2Yy21Y</t>
+  </si>
+  <si>
+    <t>Szentgotthárd</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Domb%C3%B3v%C3%A1r/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Dombóvár</t>
+  </si>
+  <si>
+    <t>Mezőtúr</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Mez%C5%91t%C5%B1r/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Balatonboglár</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Balatonbogl%C3%A1r/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Nagyatád</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Nagyat%C3%A1d/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Mór</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/M%C3%B3r/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Mak%C3%B3/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Makó</t>
+  </si>
+  <si>
+    <t>Sárbogárd</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/S%C3%A1rbog%C3%A1rd/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Szabadszállás</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Szabadsz%C3%A1ll%C3%A1s--Magyarorsz%C3%A1g/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=Szabadsz%C3%A1ll%C3%A1s%2C%20Magyarorsz%C3%A1g&amp;place_id=ChIJSSrvVfcwQkcRNNDG47kBqho</t>
+  </si>
+  <si>
+    <t>Lenti</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Lenti/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Marcali</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Marcali/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/B%C3%A1csalm%C3%A1s/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Bácsalmás</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Polg%C3%A1rdi/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Polgárdi</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Battonya--Magyarorsz%C3%A1g/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=Battonya%2C%20Magyarorsz%C3%A1g&amp;place_id=ChIJNZcN5HixRUcREBUeDCnEAAQ</t>
+  </si>
+  <si>
+    <t>Battonya</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Dabas/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Dabas</t>
+  </si>
+  <si>
+    <t>Bicske</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Bicske/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/V%C3%A9szt%C5%91/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Vésztő</t>
+  </si>
+  <si>
+    <t>Dunaföldvár</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Dunaf%C3%B6ldv%C3%A1r--Hungary/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=Dunaf%C3%B6ldv%C3%A1r%2C%20Hungary&amp;place_id=ChIJ4-82xhRAQkcRdxh6YBPd4Zo</t>
+  </si>
+  <si>
+    <t>Heves</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Heves/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Tiszafüred</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Tiszaf%C3%BCred/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Tiszaföldvár</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Tiszaf%C3%B6ldv%C3%A1r/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Karcag</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Karcag/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Szarvas</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Szarvas/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Szerencs</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Szerencs/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Fehérgyarmati</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Feh%C3%A9rgyarmat--Hungary/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=Feh%C3%A9rgyarmat%2C%20Hungary&amp;place_id=ChIJOQIy6hVvOEcRMBseDCnEAAQ</t>
+  </si>
+  <si>
+    <t>Sárospatak</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/S%C3%A1rospatak/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Kisvárda</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Kisv%C3%A1rda/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/F%C3%BCzesgyarmat--Magyarorsz%C3%A1g/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=F%C3%BCzesgyarmat%2C%20Magyarorsz%C3%A1g&amp;place_id=ChIJXZpG7sXtRkcRiFKaZ-YLY6g</t>
+  </si>
+  <si>
+    <t>Füzesgyarmat</t>
+  </si>
+  <si>
+    <t>Polgár</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Polg%C3%A1r/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
+  </si>
+  <si>
+    <t>Fegyvernek</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Fegyvernek--Magyarorsz%C3%A1g/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=Fegyvernek%2C%20Magyarorsz%C3%A1g&amp;place_id=ChIJJyDUgQc0QUcRtsXhQaT9gUc</t>
+  </si>
+  <si>
+    <t>Balkány</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.hu/s/Balk%C3%A1ny/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip</t>
   </si>
 </sst>
 </file>
@@ -894,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B6AFC6-FC1B-4887-9F2A-7A8EEDB7A82D}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,7 +1752,7 @@
       <c r="A80" t="s">
         <v>137</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1552,6 +1762,286 @@
       </c>
       <c r="B81" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1561,6 +2051,42 @@
     <hyperlink ref="B14" r:id="rId3" xr:uid="{083E8FEC-CF21-498F-8A1C-3EA5BDDA6EC5}"/>
     <hyperlink ref="B78" r:id="rId4" xr:uid="{D155055D-FEA4-454E-9B5C-43F26B7FEF63}"/>
     <hyperlink ref="B67" r:id="rId5" display="https://www.airbnb.com/s/zirc/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=search_blocks_selector_p1_flow&amp;search_type=search_query&amp;place_id=ChIJSXDD00FkakcRr0pF00t6w4I&amp;map_toggle=false" xr:uid="{BE778148-4387-4E93-88E2-CEDDFAC3BCBA}"/>
+    <hyperlink ref="B80" r:id="rId6" xr:uid="{6044CD80-A158-452F-8EA7-00EA6BD9238B}"/>
+    <hyperlink ref="B82" r:id="rId7" display="https://www.airbnb.hu/s/M%C3%A1t%C3%A9szalka--Hungary/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;query=M%C3%A1t%C3%A9szalka%2C%20Hungary&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;place_id=ChIJp3cgSkN7OEcRoxZFeq_hSpo" xr:uid="{5042E128-98FB-458C-AADC-293EBEA92FB8}"/>
+    <hyperlink ref="B83" r:id="rId8" display="https://www.airbnb.hu/s/hatvan/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{69E6CF39-7201-4144-8C93-0B9CD65468E1}"/>
+    <hyperlink ref="B84" r:id="rId9" display="https://www.airbnb.hu/s/Tam%C3%A1si--Hungary/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=Tam%C3%A1si%2C%20Hungary&amp;place_id=ChIJs2y_GRLVaUcR3ih8SVubOTM" xr:uid="{99822C4F-0E4A-4ED6-B305-88BEC3786D5C}"/>
+    <hyperlink ref="B85" r:id="rId10" display="https://www.airbnb.hu/s/kapuv%C3%A1r/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{975EF2E2-6B48-4209-89EC-1B7FA92428F5}"/>
+    <hyperlink ref="B86" r:id="rId11" display="https://www.airbnb.hu/s/Szentgotth%C3%A1rd/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=Szentgotth%C3%A1rd&amp;place_id=ChIJnfJqsCTebkcRXRT0V2Yy21Y" xr:uid="{C526CF18-9B92-4423-9472-4C9BF1BB07B1}"/>
+    <hyperlink ref="B87" r:id="rId12" display="https://www.airbnb.hu/s/Domb%C3%B3v%C3%A1r/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{BF536F5F-4934-4415-BF88-69FF47E0BA29}"/>
+    <hyperlink ref="B88" r:id="rId13" display="https://www.airbnb.hu/s/Mez%C5%91t%C5%B1r/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{8182A1F6-C02A-4573-9D9E-2606C5954FFE}"/>
+    <hyperlink ref="B89" r:id="rId14" display="https://www.airbnb.hu/s/Balatonbogl%C3%A1r/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{C28E777E-0385-45F0-9A8D-CE1DDAD04DFC}"/>
+    <hyperlink ref="B90" r:id="rId15" display="https://www.airbnb.hu/s/Nagyat%C3%A1d/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{80ACEF75-9CD8-41F2-BE1C-5254EC949FEB}"/>
+    <hyperlink ref="B91" r:id="rId16" display="https://www.airbnb.hu/s/M%C3%B3r/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{B035AE0C-2FAF-4D32-BF5D-F93367DEF3F0}"/>
+    <hyperlink ref="B92" r:id="rId17" display="https://www.airbnb.hu/s/Mak%C3%B3/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{F1899763-1E8C-45E9-97C4-9F77BC0D10B8}"/>
+    <hyperlink ref="B93" r:id="rId18" display="https://www.airbnb.hu/s/S%C3%A1rbog%C3%A1rd/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{912D7FE4-FC82-4A65-9AC6-A3E564A8518C}"/>
+    <hyperlink ref="B94" r:id="rId19" display="https://www.airbnb.hu/s/Szabadsz%C3%A1ll%C3%A1s--Magyarorsz%C3%A1g/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=Szabadsz%C3%A1ll%C3%A1s%2C%20Magyarorsz%C3%A1g&amp;place_id=ChIJSSrvVfcwQkcRNNDG47kBqho" xr:uid="{59427951-CDAE-4290-ACE7-EFA5ABA137EF}"/>
+    <hyperlink ref="B95" r:id="rId20" display="https://www.airbnb.hu/s/Lenti/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{5084DB1B-EE18-46FE-9E5D-5B1A62EFB9B3}"/>
+    <hyperlink ref="B96" r:id="rId21" display="https://www.airbnb.hu/s/Marcali/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{EF426331-13C6-459A-9E8E-58EFBF121B36}"/>
+    <hyperlink ref="B97" r:id="rId22" display="https://www.airbnb.hu/s/B%C3%A1csalm%C3%A1s/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{3362AC61-2617-44D9-B988-2C8BCFD00AF9}"/>
+    <hyperlink ref="B98" r:id="rId23" display="https://www.airbnb.hu/s/Polg%C3%A1rdi/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{DF849C34-6D97-47E9-A504-7480EC12157E}"/>
+    <hyperlink ref="B99" r:id="rId24" display="https://www.airbnb.hu/s/Battonya--Magyarorsz%C3%A1g/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=Battonya%2C%20Magyarorsz%C3%A1g&amp;place_id=ChIJNZcN5HixRUcREBUeDCnEAAQ" xr:uid="{B2D8699D-B63B-4FBA-A83C-3380B93775BE}"/>
+    <hyperlink ref="B100" r:id="rId25" display="https://www.airbnb.hu/s/Dabas/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{29C83C1D-8E91-45EF-B8B5-34BFE8493E32}"/>
+    <hyperlink ref="B101" r:id="rId26" display="https://www.airbnb.hu/s/Bicske/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{7D2D8D97-17E8-475A-BF71-7A2A34C8F75F}"/>
+    <hyperlink ref="B102" r:id="rId27" display="https://www.airbnb.hu/s/V%C3%A9szt%C5%91/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{AC7C7361-515F-4326-B8D0-CD19E3C2A832}"/>
+    <hyperlink ref="B103" r:id="rId28" display="https://www.airbnb.hu/s/Dunaf%C3%B6ldv%C3%A1r--Hungary/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=Dunaf%C3%B6ldv%C3%A1r%2C%20Hungary&amp;place_id=ChIJ4-82xhRAQkcRdxh6YBPd4Zo" xr:uid="{68E7CAA0-E868-4207-A304-7EC98DF55314}"/>
+    <hyperlink ref="B104" r:id="rId29" display="https://www.airbnb.hu/s/Heves/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{DA914D6C-3FCA-41E7-8BDE-E97CAFDB02BA}"/>
+    <hyperlink ref="B105" r:id="rId30" display="https://www.airbnb.hu/s/Tiszaf%C3%BCred/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{ABCEAFE3-A346-4B8D-A769-6DAC45C40225}"/>
+    <hyperlink ref="B106" r:id="rId31" display="https://www.airbnb.hu/s/Tiszaf%C3%B6ldv%C3%A1r/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{9CB298FD-B61D-4EDC-A1D7-826673F6E5AC}"/>
+    <hyperlink ref="B107" r:id="rId32" display="https://www.airbnb.hu/s/Karcag/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{F2AEF605-8136-461E-BC2A-7B3405D42718}"/>
+    <hyperlink ref="B108" r:id="rId33" display="https://www.airbnb.hu/s/Szarvas/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{65143335-BA2D-4CF7-9624-9D2F43AC7B3C}"/>
+    <hyperlink ref="B109" r:id="rId34" display="https://www.airbnb.hu/s/Szerencs/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{3BA248C7-F332-4A82-B87E-89A1BEE1C8C3}"/>
+    <hyperlink ref="B110" r:id="rId35" display="https://www.airbnb.hu/s/Feh%C3%A9rgyarmat--Hungary/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=Feh%C3%A9rgyarmat%2C%20Hungary&amp;place_id=ChIJOQIy6hVvOEcRMBseDCnEAAQ" xr:uid="{D837B4F4-26D6-4C69-8EF6-BE0CC27F30AA}"/>
+    <hyperlink ref="B111" r:id="rId36" display="https://www.airbnb.hu/s/S%C3%A1rospatak/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{1C1EE6E6-5B7C-423C-981C-D8189FE70CA4}"/>
+    <hyperlink ref="B112" r:id="rId37" display="https://www.airbnb.hu/s/Kisv%C3%A1rda/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{2A92776D-DB43-4F6E-B8E8-5D3292339468}"/>
+    <hyperlink ref="B113" r:id="rId38" display="https://www.airbnb.hu/s/F%C3%BCzesgyarmat--Magyarorsz%C3%A1g/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=F%C3%BCzesgyarmat%2C%20Magyarorsz%C3%A1g&amp;place_id=ChIJXZpG7sXtRkcRiFKaZ-YLY6g" xr:uid="{9F0828C8-9384-40A2-9F6B-50428CFA8316}"/>
+    <hyperlink ref="B114" r:id="rId39" display="https://www.airbnb.hu/s/Polg%C3%A1r/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{94168263-CE2F-4E1F-8D5C-20A456D4E030}"/>
+    <hyperlink ref="B115" r:id="rId40" display="https://www.airbnb.hu/s/Fegyvernek--Magyarorsz%C3%A1g/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=autocomplete_click&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip&amp;query=Fegyvernek%2C%20Magyarorsz%C3%A1g&amp;place_id=ChIJJyDUgQc0QUcRtsXhQaT9gUc" xr:uid="{EBF23C15-713C-4435-8423-9F5631177FEE}"/>
+    <hyperlink ref="B116" r:id="rId41" display="https://www.airbnb.hu/s/Balk%C3%A1ny/homes?tab_id=home_tab&amp;refinement_paths%5B%5D=%2Fhomes&amp;date_picker_type=calendar&amp;checkin=2021-07-01&amp;checkout=2021-07-04&amp;source=structured_search_input_header&amp;search_type=search_query&amp;flexible_trip_dates%5B%5D=april&amp;flexible_trip_dates%5B%5D=march&amp;flexible_trip_lengths%5B%5D=weekend_trip" xr:uid="{6425A2D3-2BB1-402A-AE77-B9EC78393AC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
